--- a/Netlogo/ResultYFModel6In.xlsx
+++ b/Netlogo/ResultYFModel6In.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tikumporn/Desktop/GitHub/GameTheoryFloodReloc/Netlogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34591E8-525D-8A41-A823-3844E37A5D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859BDDAA-BEE9-E74A-9615-8D9A3F1793B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{68592D96-7144-7F4A-8816-EBE8DD1207E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12680" windowHeight="16000" xr2:uid="{68592D96-7144-7F4A-8816-EBE8DD1207E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -240,16 +237,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,10 +586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -597,77 +597,77 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="34">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
         <v>22</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
@@ -684,20 +684,20 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
-        <v>200</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="11">
+        <v>200</v>
+      </c>
+      <c r="D5" s="11">
         <v>27</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="3">
         <v>2</v>
       </c>
@@ -712,20 +712,20 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13">
-        <v>200</v>
-      </c>
-      <c r="D6" s="13">
-        <v>200</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>200</v>
+      </c>
+      <c r="D6" s="11">
+        <v>200</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="3">
         <v>3</v>
       </c>
@@ -740,20 +740,20 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
-        <v>200</v>
-      </c>
-      <c r="D7" s="13">
-        <v>200</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>200</v>
+      </c>
+      <c r="D7" s="11">
+        <v>200</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="3">
         <v>4</v>
       </c>
@@ -768,20 +768,20 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
-        <v>200</v>
-      </c>
-      <c r="D8" s="13">
-        <v>200</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C8" s="11">
+        <v>200</v>
+      </c>
+      <c r="D8" s="11">
+        <v>200</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="3">
         <v>5</v>
       </c>
@@ -796,11 +796,11 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -808,22 +808,22 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>200</v>
-      </c>
-      <c r="D10" s="13">
-        <v>200</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>200</v>
+      </c>
+      <c r="D10" s="11">
+        <v>200</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="3">
@@ -840,20 +840,20 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="13">
-        <v>200</v>
-      </c>
-      <c r="D11" s="13">
-        <v>200</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="11">
+        <v>200</v>
+      </c>
+      <c r="D11" s="11">
+        <v>200</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="3">
         <v>2</v>
       </c>
@@ -868,20 +868,20 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13">
-        <v>200</v>
-      </c>
-      <c r="D12" s="13">
-        <v>200</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>200</v>
+      </c>
+      <c r="D12" s="11">
+        <v>200</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="3">
         <v>3</v>
       </c>
@@ -896,20 +896,20 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="13">
-        <v>200</v>
-      </c>
-      <c r="D13" s="13">
-        <v>200</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>200</v>
+      </c>
+      <c r="D13" s="11">
+        <v>200</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="3">
         <v>4</v>
       </c>
@@ -924,20 +924,20 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="13">
-        <v>200</v>
-      </c>
-      <c r="D14" s="13">
-        <v>200</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="11">
+        <v>200</v>
+      </c>
+      <c r="D14" s="11">
+        <v>200</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="3">
         <v>5</v>
       </c>
@@ -952,119 +952,119 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" s="3" customFormat="1" ht="34">
-      <c r="A18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="I19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
         <v>0</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>0</v>
       </c>
       <c r="M19" s="3">
@@ -1072,27 +1072,27 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="11">
+      <c r="I20" s="15"/>
+      <c r="J20" s="10">
         <v>2</v>
       </c>
-      <c r="K20" s="11">
-        <v>1</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1100,55 +1100,55 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15">
-        <v>3</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="11">
-        <v>3</v>
-      </c>
-      <c r="K21" s="11">
-        <v>3</v>
-      </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="10">
+        <v>3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15">
-        <v>4</v>
-      </c>
-      <c r="C22" s="15">
-        <v>4</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="11">
-        <v>4</v>
-      </c>
-      <c r="K22" s="11">
-        <v>4</v>
-      </c>
-      <c r="L22" s="11">
+      <c r="I22" s="15"/>
+      <c r="J22" s="10">
+        <v>4</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4</v>
+      </c>
+      <c r="L22" s="10">
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1156,71 +1156,71 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12">
         <v>5</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>5</v>
       </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11">
+      <c r="I23" s="15"/>
+      <c r="J23" s="10">
         <v>5</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>5</v>
       </c>
-      <c r="L23" s="11">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="15">
-        <v>1</v>
-      </c>
-      <c r="C25" s="15">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
         <v>2</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
-        <v>4</v>
-      </c>
-      <c r="L25" s="11">
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <v>4</v>
+      </c>
+      <c r="L25" s="10">
         <v>3</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1228,27 +1228,27 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>11</v>
       </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="11">
+      <c r="I26" s="15"/>
+      <c r="J26" s="10">
         <v>2</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>8</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1256,27 +1256,27 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
-        <v>3</v>
-      </c>
-      <c r="C27" s="15">
-        <v>200</v>
-      </c>
-      <c r="D27" s="15">
-        <v>3</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>200</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="11">
-        <v>3</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="I27" s="15"/>
+      <c r="J27" s="10">
+        <v>3</v>
+      </c>
+      <c r="K27" s="10">
         <v>11</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -1284,55 +1284,55 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15">
-        <v>4</v>
-      </c>
-      <c r="C28" s="15">
-        <v>200</v>
-      </c>
-      <c r="D28" s="15">
-        <v>3</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12">
+        <v>4</v>
+      </c>
+      <c r="C28" s="12">
+        <v>200</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="11">
-        <v>4</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="I28" s="15"/>
+      <c r="J28" s="10">
+        <v>4</v>
+      </c>
+      <c r="K28" s="10">
         <v>13</v>
       </c>
-      <c r="L28" s="11">
-        <v>3</v>
-      </c>
-      <c r="M28" s="11" t="s">
+      <c r="L28" s="10">
+        <v>3</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
-        <v>200</v>
-      </c>
-      <c r="D29" s="15">
-        <v>4</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="12">
+        <v>200</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="11">
+      <c r="I29" s="15"/>
+      <c r="J29" s="10">
         <v>5</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>15</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -1341,6 +1341,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="I4:I8"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="I19:I23"/>
     <mergeCell ref="I25:I29"/>
@@ -1348,11 +1353,6 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="I4:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
